--- a/Applications/MNIST/Step05_TrainNeuralNetwork/Step05_IDs.xlsx
+++ b/Applications/MNIST/Step05_TrainNeuralNetwork/Step05_IDs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\MatlabAIML\Applications\MNIST\Step05_TrainNeuralNetwork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7E1F209-216B-4697-A4F2-6DD77E9F83D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1967DCE1-F5F2-4548-864A-B81B9A5D91E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17025" yWindow="-18120" windowWidth="29040" windowHeight="18240" xr2:uid="{62938247-60B1-4176-96BA-8E8C4D4BE688}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="29">
   <si>
     <t>Time to train (sec)</t>
   </si>
@@ -95,12 +95,6 @@
     <t>neuralNetworkFile</t>
   </si>
   <si>
-    <t>NeuralNetworkScenario1</t>
-  </si>
-  <si>
-    <t>TrainingAndTestDataScenario1</t>
-  </si>
-  <si>
     <t>Accuracy train</t>
   </si>
   <si>
@@ -117,6 +111,18 @@
   </si>
   <si>
     <t>may not have converged yet</t>
+  </si>
+  <si>
+    <t>TrainedNeuralNetworkScenario4.mat</t>
+  </si>
+  <si>
+    <t>NeuralNetworkScenario2.mat</t>
+  </si>
+  <si>
+    <t>NeuralNetworkScenario1.mat</t>
+  </si>
+  <si>
+    <t>TrainingAndTestDataScenario1.mat</t>
   </si>
 </sst>
 </file>
@@ -144,7 +150,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -154,12 +160,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -193,7 +193,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -511,14 +511,14 @@
   <dimension ref="A1:O41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" customWidth="1"/>
     <col min="12" max="12" width="9.140625" customWidth="1"/>
     <col min="13" max="13" width="8.28515625" customWidth="1"/>
     <col min="14" max="14" width="8.7109375" style="5" bestFit="1" customWidth="1"/>
@@ -570,10 +570,10 @@
         <v>11</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N2" s="4" t="s">
         <v>1</v>
@@ -584,13 +584,13 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D3" s="1">
         <v>1217</v>
@@ -629,7 +629,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -674,7 +674,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
@@ -683,11 +683,11 @@
         <v>2</v>
       </c>
       <c r="D5" s="1">
-        <v>23491</v>
+        <v>19936</v>
       </c>
       <c r="E5" s="6">
         <f t="shared" si="0"/>
-        <v>6.5252777777777773</v>
+        <v>5.5377777777777775</v>
       </c>
       <c r="F5" t="s">
         <v>2</v>
@@ -708,23 +708,61 @@
         <v>2</v>
       </c>
       <c r="L5">
-        <v>0.86150000000000004</v>
+        <v>0.86060000000000003</v>
       </c>
       <c r="M5">
-        <v>0.86799999999999999</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>2</v>
+        <v>0.86770000000000003</v>
+      </c>
+      <c r="N5" s="5">
+        <v>45072</v>
       </c>
       <c r="O5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D6" s="1"/>
+      <c r="D6" s="1">
+        <v>19643</v>
+      </c>
       <c r="E6" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5.4563888888888892</v>
+      </c>
+      <c r="F6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <v>7.5700000000000003E-2</v>
+      </c>
+      <c r="I6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J6" t="s">
+        <v>2</v>
+      </c>
+      <c r="K6" t="s">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.91849999999999998</v>
+      </c>
+      <c r="M6">
+        <v>0.92330000000000001</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -756,18 +794,10 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D11" s="1">
-        <v>22617</v>
-      </c>
+      <c r="D11" s="1"/>
       <c r="E11" s="6">
         <f t="shared" si="0"/>
-        <v>6.2824999999999998</v>
-      </c>
-      <c r="L11">
-        <v>0.9143</v>
-      </c>
-      <c r="M11">
-        <v>0.91690000000000005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">

--- a/Applications/MNIST/Step05_TrainNeuralNetwork/Step05_IDs.xlsx
+++ b/Applications/MNIST/Step05_TrainNeuralNetwork/Step05_IDs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\MatlabAIML\Applications\MNIST\Step05_TrainNeuralNetwork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1967DCE1-F5F2-4548-864A-B81B9A5D91E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4663833C-C57E-4F42-B682-98725CBF0984}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17025" yWindow="-18120" windowWidth="29040" windowHeight="18240" xr2:uid="{62938247-60B1-4176-96BA-8E8C4D4BE688}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="37">
   <si>
     <t>Time to train (sec)</t>
   </si>
@@ -123,6 +123,30 @@
   </si>
   <si>
     <t>TrainingAndTestDataScenario1.mat</t>
+  </si>
+  <si>
+    <t>TrainedNeuralNetworkScenario5.mat</t>
+  </si>
+  <si>
+    <t>TrainingAndTestDataScenario4.mat</t>
+  </si>
+  <si>
+    <t>Average error train</t>
+  </si>
+  <si>
+    <t>Average error test</t>
+  </si>
+  <si>
+    <t>TrainedNeuralNetworkScenario6.mat</t>
+  </si>
+  <si>
+    <t>TrainingAndTestDataScenario5.mat</t>
+  </si>
+  <si>
+    <t>D values are all 0.1 and 0.9</t>
+  </si>
+  <si>
+    <t>D values are all 0.2 and 0.8</t>
   </si>
 </sst>
 </file>
@@ -176,7 +200,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -193,7 +217,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -508,10 +531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB6A9477-8AFD-4101-9264-32AD54AA2B96}">
-  <dimension ref="A1:O41"/>
+  <dimension ref="A1:Q41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -520,12 +543,12 @@
     <col min="2" max="2" width="32.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.7109375" customWidth="1"/>
     <col min="12" max="12" width="9.140625" customWidth="1"/>
-    <col min="13" max="13" width="8.28515625" customWidth="1"/>
-    <col min="14" max="14" width="8.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.140625" customWidth="1"/>
+    <col min="13" max="15" width="8.28515625" customWidth="1"/>
+    <col min="16" max="16" width="8.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="F1" s="7" t="s">
         <v>12</v>
       </c>
@@ -535,7 +558,7 @@
       <c r="J1" s="7"/>
       <c r="K1" s="7"/>
     </row>
-    <row r="2" spans="1:15" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -575,14 +598,20 @@
       <c r="M2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -618,16 +647,22 @@
         <v>1</v>
       </c>
       <c r="L3">
-        <v>0.79690000000000005</v>
+        <v>0.78010000000000002</v>
       </c>
       <c r="M3">
-        <v>0.81789999999999996</v>
-      </c>
-      <c r="N3" s="5">
-        <v>45070</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.80079999999999996</v>
+      </c>
+      <c r="N3">
+        <v>0.1744</v>
+      </c>
+      <c r="O3">
+        <v>0.16139999999999999</v>
+      </c>
+      <c r="P3" s="5">
+        <v>45073</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -638,11 +673,11 @@
         <v>2</v>
       </c>
       <c r="D4" s="1">
-        <v>22892</v>
+        <v>28047</v>
       </c>
       <c r="E4" s="6">
         <f t="shared" ref="E4:E32" si="0">D4/60/60</f>
-        <v>6.358888888888889</v>
+        <v>7.7908333333333335</v>
       </c>
       <c r="F4" t="s">
         <v>2</v>
@@ -668,12 +703,18 @@
       <c r="M4">
         <v>0.91579999999999995</v>
       </c>
-      <c r="N4" s="5">
-        <v>45071</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="N4">
+        <v>7.4099999999999999E-2</v>
+      </c>
+      <c r="O4">
+        <v>7.0599999999999996E-2</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>23</v>
       </c>
       <c r="B5" t="s">
@@ -683,11 +724,11 @@
         <v>2</v>
       </c>
       <c r="D5" s="1">
-        <v>19936</v>
+        <v>26954</v>
       </c>
       <c r="E5" s="6">
         <f t="shared" si="0"/>
-        <v>5.5377777777777775</v>
+        <v>7.4872222222222229</v>
       </c>
       <c r="F5" t="s">
         <v>2</v>
@@ -708,20 +749,26 @@
         <v>2</v>
       </c>
       <c r="L5">
-        <v>0.86060000000000003</v>
+        <v>0.86070000000000002</v>
       </c>
       <c r="M5">
-        <v>0.86770000000000003</v>
-      </c>
-      <c r="N5" s="5">
-        <v>45072</v>
-      </c>
-      <c r="O5" t="s">
+        <v>0.86460000000000004</v>
+      </c>
+      <c r="N5">
+        <v>0.1166</v>
+      </c>
+      <c r="O5">
+        <v>0.1125</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>25</v>
       </c>
       <c r="B6" t="s">
@@ -731,11 +778,11 @@
         <v>26</v>
       </c>
       <c r="D6" s="1">
-        <v>19643</v>
+        <v>28263</v>
       </c>
       <c r="E6" s="6">
         <f t="shared" si="0"/>
-        <v>5.4563888888888892</v>
+        <v>7.8508333333333331</v>
       </c>
       <c r="F6" t="s">
         <v>2</v>
@@ -756,142 +803,228 @@
         <v>2</v>
       </c>
       <c r="L6">
-        <v>0.91849999999999998</v>
+        <v>0.91879999999999995</v>
       </c>
       <c r="M6">
-        <v>0.92330000000000001</v>
-      </c>
-      <c r="N6" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D7" s="1"/>
+        <v>0.92179999999999995</v>
+      </c>
+      <c r="N6">
+        <v>6.6799999999999998E-2</v>
+      </c>
+      <c r="O6">
+        <v>6.4100000000000004E-2</v>
+      </c>
+      <c r="P6" s="5">
+        <v>45074</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="1">
+        <v>27020</v>
+      </c>
       <c r="E7" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+        <v>7.5055555555555555</v>
+      </c>
+      <c r="F7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>0.05</v>
+      </c>
+      <c r="I7" t="s">
+        <v>2</v>
+      </c>
+      <c r="J7" t="s">
+        <v>2</v>
+      </c>
+      <c r="K7" t="s">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="M7">
+        <v>0.90529999999999999</v>
+      </c>
+      <c r="N7">
+        <v>6.3399999999999998E-2</v>
+      </c>
+      <c r="O7">
+        <v>6.1699999999999998E-2</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
       <c r="D8" s="1"/>
       <c r="E8" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" t="s">
+        <v>2</v>
+      </c>
+      <c r="J8" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" t="s">
+        <v>2</v>
+      </c>
+      <c r="P8" s="5">
+        <v>45075</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D9" s="1"/>
       <c r="E9" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D10" s="1"/>
       <c r="E10" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D11" s="1"/>
       <c r="E11" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D12" s="1"/>
       <c r="E12" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D13" s="1"/>
       <c r="E13" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D14" s="1"/>
       <c r="E14" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D15" s="1"/>
       <c r="E15" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D16" s="1"/>
       <c r="E16" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D17" s="1"/>
       <c r="E17" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D18" s="1"/>
       <c r="E18" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D19" s="1"/>
       <c r="E19" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D20" s="1"/>
       <c r="E20" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D21" s="1"/>
       <c r="E21" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D22" s="1"/>
       <c r="E22" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D23" s="1"/>
       <c r="E23" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D24" s="1"/>
       <c r="E24" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D25" s="1"/>
       <c r="E25" s="6">
         <f t="shared" si="0"/>
@@ -915,11 +1048,11 @@
       <c r="K25" t="s">
         <v>2</v>
       </c>
-      <c r="N25" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="P25" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D26" s="1"/>
       <c r="E26" s="6">
         <f t="shared" si="0"/>
@@ -943,11 +1076,11 @@
       <c r="K26" t="s">
         <v>2</v>
       </c>
-      <c r="N26" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="P26" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D27" s="1"/>
       <c r="E27" s="6">
         <f t="shared" si="0"/>
@@ -971,11 +1104,11 @@
       <c r="K27" t="s">
         <v>2</v>
       </c>
-      <c r="N27" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="P27" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D28" s="1"/>
       <c r="E28" s="6">
         <f t="shared" si="0"/>
@@ -999,11 +1132,11 @@
       <c r="K28" t="s">
         <v>2</v>
       </c>
-      <c r="N28" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="P28" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D29" s="1"/>
       <c r="E29" s="6">
         <f t="shared" si="0"/>
@@ -1027,11 +1160,11 @@
       <c r="K29" t="s">
         <v>2</v>
       </c>
-      <c r="N29" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="P29" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D30" s="1"/>
       <c r="E30" s="6">
         <f t="shared" si="0"/>
@@ -1055,11 +1188,11 @@
       <c r="K30" t="s">
         <v>2</v>
       </c>
-      <c r="N30" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="P30" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D31" s="1"/>
       <c r="E31" s="6">
         <f t="shared" si="0"/>
@@ -1083,14 +1216,14 @@
       <c r="K31" t="s">
         <v>2</v>
       </c>
-      <c r="N31" s="5">
+      <c r="P31" s="5">
         <v>45054</v>
       </c>
-      <c r="O31" t="s">
+      <c r="Q31" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D32" s="1"/>
       <c r="E32" s="6">
         <f t="shared" si="0"/>
@@ -1114,14 +1247,14 @@
       <c r="K32" t="s">
         <v>2</v>
       </c>
-      <c r="N32" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="O32" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="P32" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F33" t="s">
         <v>2</v>
       </c>
@@ -1140,14 +1273,14 @@
       <c r="K33" t="s">
         <v>2</v>
       </c>
-      <c r="N33" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="O33" t="s">
+      <c r="P33" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q33" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="6:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F34" t="s">
         <v>2</v>
       </c>
@@ -1172,14 +1305,14 @@
       <c r="M34">
         <v>0.88370000000000004</v>
       </c>
-      <c r="N34" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="O34" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="P34" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F35" t="s">
         <v>2</v>
       </c>
@@ -1204,11 +1337,11 @@
       <c r="M35">
         <v>0.91679999999999995</v>
       </c>
-      <c r="N35" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="P35" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F36" t="s">
         <v>2</v>
       </c>
@@ -1233,14 +1366,14 @@
       <c r="M36">
         <v>0.91969999999999996</v>
       </c>
-      <c r="N36" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="O36" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="P36" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F37" t="s">
         <v>2</v>
       </c>
@@ -1265,11 +1398,11 @@
       <c r="M37">
         <v>0.92310000000000003</v>
       </c>
-      <c r="N37" s="5">
+      <c r="P37" s="5">
         <v>45055</v>
       </c>
     </row>
-    <row r="38" spans="6:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F38" t="s">
         <v>2</v>
       </c>
@@ -1294,11 +1427,11 @@
       <c r="M38">
         <v>0.60329999999999995</v>
       </c>
-      <c r="N38" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="P38" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F39" t="s">
         <v>2</v>
       </c>
@@ -1323,11 +1456,11 @@
       <c r="M39">
         <v>0.623</v>
       </c>
-      <c r="N39" s="5">
+      <c r="P39" s="5">
         <v>45056</v>
       </c>
     </row>
-    <row r="40" spans="6:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F40" t="s">
         <v>2</v>
       </c>
@@ -1352,11 +1485,11 @@
       <c r="M40">
         <v>0.67810000000000004</v>
       </c>
-      <c r="N40" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="P40" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F41" t="s">
         <v>2</v>
       </c>

--- a/Applications/MNIST/Step05_TrainNeuralNetwork/Step05_IDs.xlsx
+++ b/Applications/MNIST/Step05_TrainNeuralNetwork/Step05_IDs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\MatlabAIML\Applications\MNIST\Step05_TrainNeuralNetwork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4663833C-C57E-4F42-B682-98725CBF0984}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60148E98-9C9D-41DC-B3BE-C43F5F95242C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17025" yWindow="-18120" windowWidth="29040" windowHeight="18240" xr2:uid="{62938247-60B1-4176-96BA-8E8C4D4BE688}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="41">
   <si>
     <t>Time to train (sec)</t>
   </si>
@@ -147,6 +147,18 @@
   </si>
   <si>
     <t>D values are all 0.2 and 0.8</t>
+  </si>
+  <si>
+    <t>TrainedNeuralNetworkScenario7.mat</t>
+  </si>
+  <si>
+    <t>NeuralNetworkScenario3.mat</t>
+  </si>
+  <si>
+    <t>D values are all 0 and 1.0</t>
+  </si>
+  <si>
+    <t>TrainedNeuralNetworkScenario8.mat</t>
   </si>
 </sst>
 </file>
@@ -534,7 +546,7 @@
   <dimension ref="A1:Q41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -882,10 +894,12 @@
       <c r="C8" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="1"/>
+      <c r="D8" s="1">
+        <v>19219</v>
+      </c>
       <c r="E8" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5.3386111111111108</v>
       </c>
       <c r="F8" t="s">
         <v>2</v>
@@ -904,6 +918,18 @@
       </c>
       <c r="K8" t="s">
         <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.87124000000000001</v>
+      </c>
+      <c r="M8">
+        <v>0.87770000000000004</v>
+      </c>
+      <c r="N8">
+        <v>4.53E-2</v>
+      </c>
+      <c r="O8">
+        <v>4.2599999999999999E-2</v>
       </c>
       <c r="P8" s="5">
         <v>45075</v>
@@ -913,17 +939,111 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D9" s="1"/>
+      <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="1">
+        <v>20204</v>
+      </c>
       <c r="E9" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5.6122222222222229</v>
+      </c>
+      <c r="F9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" t="s">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="I9" t="s">
+        <v>2</v>
+      </c>
+      <c r="J9" t="s">
+        <v>2</v>
+      </c>
+      <c r="K9" t="s">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.95579999999999998</v>
+      </c>
+      <c r="M9">
+        <v>0.94179999999999997</v>
+      </c>
+      <c r="N9">
+        <v>4.2799999999999998E-2</v>
+      </c>
+      <c r="O9">
+        <v>5.0599999999999999E-2</v>
+      </c>
+      <c r="P9" s="5">
+        <v>45089</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D10" s="1"/>
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1">
+        <v>20820</v>
+      </c>
       <c r="E10" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5.7833333333333332</v>
+      </c>
+      <c r="F10" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" t="s">
+        <v>2</v>
+      </c>
+      <c r="H10">
+        <v>0.01</v>
+      </c>
+      <c r="I10" t="s">
+        <v>2</v>
+      </c>
+      <c r="J10" t="s">
+        <v>2</v>
+      </c>
+      <c r="K10" t="s">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.96099999999999997</v>
+      </c>
+      <c r="M10">
+        <v>0.94640000000000002</v>
+      </c>
+      <c r="N10">
+        <v>3.1699999999999999E-2</v>
+      </c>
+      <c r="O10">
+        <v>3.6700000000000003E-2</v>
+      </c>
+      <c r="P10" s="5">
+        <v>45090</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">

--- a/Applications/MNIST/Step05_TrainNeuralNetwork/Step05_IDs.xlsx
+++ b/Applications/MNIST/Step05_TrainNeuralNetwork/Step05_IDs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\MatlabAIML\Applications\MNIST\Step05_TrainNeuralNetwork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60148E98-9C9D-41DC-B3BE-C43F5F95242C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6584DC1-23EC-4165-A265-BFA17FBDAC64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17025" yWindow="-18120" windowWidth="29040" windowHeight="18240" xr2:uid="{62938247-60B1-4176-96BA-8E8C4D4BE688}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="42">
   <si>
     <t>Time to train (sec)</t>
   </si>
@@ -159,6 +159,9 @@
   </si>
   <si>
     <t>TrainedNeuralNetworkScenario8.mat</t>
+  </si>
+  <si>
+    <t>TrainedNeuralNetworkScenario9.mat</t>
   </si>
 </sst>
 </file>
@@ -546,7 +549,7 @@
   <dimension ref="A1:Q41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1047,10 +1050,57 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D11" s="1"/>
+      <c r="A11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1">
+        <v>19537</v>
+      </c>
       <c r="E11" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5.4269444444444446</v>
+      </c>
+      <c r="F11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H11" t="s">
+        <v>2</v>
+      </c>
+      <c r="I11" t="s">
+        <v>2</v>
+      </c>
+      <c r="J11" t="s">
+        <v>2</v>
+      </c>
+      <c r="K11" t="s">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.95030000000000003</v>
+      </c>
+      <c r="M11">
+        <v>0.93679999999999997</v>
+      </c>
+      <c r="N11">
+        <v>2.1899999999999999E-2</v>
+      </c>
+      <c r="O11">
+        <v>2.4400000000000002E-2</v>
+      </c>
+      <c r="P11" s="5">
+        <v>45091</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">

--- a/Applications/MNIST/Step05_TrainNeuralNetwork/Step05_IDs.xlsx
+++ b/Applications/MNIST/Step05_TrainNeuralNetwork/Step05_IDs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\MatlabAIML\Applications\MNIST\Step05_TrainNeuralNetwork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6584DC1-23EC-4165-A265-BFA17FBDAC64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F45B385-73F8-4EEB-A03C-2007AE82E78E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17025" yWindow="-18120" windowWidth="29040" windowHeight="18240" xr2:uid="{62938247-60B1-4176-96BA-8E8C4D4BE688}"/>
+    <workbookView xWindow="-8325" yWindow="-15870" windowWidth="25440" windowHeight="15990" xr2:uid="{62938247-60B1-4176-96BA-8E8C4D4BE688}"/>
   </bookViews>
   <sheets>
     <sheet name="Step05A" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="48">
   <si>
     <t>Time to train (sec)</t>
   </si>
@@ -162,6 +162,24 @@
   </si>
   <si>
     <t>TrainedNeuralNetworkScenario9.mat</t>
+  </si>
+  <si>
+    <t>TrainedNeuralNetworkScenario10.mat</t>
+  </si>
+  <si>
+    <t>TrainingAndTestDataScenario3.mat</t>
+  </si>
+  <si>
+    <t>NeuralNetworkScenario4.mat</t>
+  </si>
+  <si>
+    <t>small training set.  Using ReLU</t>
+  </si>
+  <si>
+    <t>TrainedNeuralNetworkScenario11.mat</t>
+  </si>
+  <si>
+    <t>NeuralNetworkScenario5.mat</t>
   </si>
 </sst>
 </file>
@@ -549,7 +567,7 @@
   <dimension ref="A1:Q41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1104,17 +1122,107 @@
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" t="s">
+        <v>44</v>
+      </c>
       <c r="D12" s="1"/>
       <c r="E12" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="F12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12" t="s">
+        <v>2</v>
+      </c>
+      <c r="H12">
+        <v>1.4999999999999999E-4</v>
+      </c>
+      <c r="I12" t="s">
+        <v>2</v>
+      </c>
+      <c r="J12">
+        <v>500</v>
+      </c>
+      <c r="K12" t="s">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.499</v>
+      </c>
+      <c r="M12">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="N12">
+        <v>0.26869999999999999</v>
+      </c>
+      <c r="O12">
+        <v>0.35930000000000001</v>
+      </c>
+      <c r="P12" s="5">
+        <v>45137</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>47</v>
+      </c>
       <c r="D13" s="1"/>
       <c r="E13" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G13" t="s">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="I13" t="s">
+        <v>2</v>
+      </c>
+      <c r="J13">
+        <v>600</v>
+      </c>
+      <c r="K13" t="s">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.78849999999999998</v>
+      </c>
+      <c r="M13">
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="N13">
+        <v>0.10979999999999999</v>
+      </c>
+      <c r="O13">
+        <v>0.2112</v>
+      </c>
+      <c r="P13" s="5">
+        <v>45138</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">

--- a/Applications/MNIST/Step05_TrainNeuralNetwork/Step05_IDs.xlsx
+++ b/Applications/MNIST/Step05_TrainNeuralNetwork/Step05_IDs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\MatlabAIML\Applications\MNIST\Step05_TrainNeuralNetwork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F45B385-73F8-4EEB-A03C-2007AE82E78E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B502617-1D90-4E33-8FE3-4CD0FA98DA12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-8325" yWindow="-15870" windowWidth="25440" windowHeight="15990" xr2:uid="{62938247-60B1-4176-96BA-8E8C4D4BE688}"/>
+    <workbookView xWindow="-8640" yWindow="-15870" windowWidth="25440" windowHeight="15990" xr2:uid="{62938247-60B1-4176-96BA-8E8C4D4BE688}"/>
   </bookViews>
   <sheets>
     <sheet name="Step05A" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="57">
   <si>
     <t>Time to train (sec)</t>
   </si>
@@ -50,12 +50,6 @@
     <t>Comment</t>
   </si>
   <si>
-    <t>used for loop</t>
-  </si>
-  <si>
-    <t>used parfor loop.  Plots don't appear</t>
-  </si>
-  <si>
     <t>errorFunctionID</t>
   </si>
   <si>
@@ -83,9 +77,6 @@
     <t>Time to train (hr)</t>
   </si>
   <si>
-    <t>varies</t>
-  </si>
-  <si>
     <t>outputFile</t>
   </si>
   <si>
@@ -180,6 +171,42 @@
   </si>
   <si>
     <t>NeuralNetworkScenario5.mat</t>
+  </si>
+  <si>
+    <t>TrainedNeuralNetworkScenario12.mat</t>
+  </si>
+  <si>
+    <t>TrainedNeuralNetworkScenario13.mat</t>
+  </si>
+  <si>
+    <t>NeuralNetworkScenario6.mat</t>
+  </si>
+  <si>
+    <t>NeuralNetworkScenario7.mat</t>
+  </si>
+  <si>
+    <t>TrainedNeuralNetworkScenario14.mat</t>
+  </si>
+  <si>
+    <t>TrainedNeuralNetworkScenario15.mat</t>
+  </si>
+  <si>
+    <t>NeuralNetworkScenario9.mat</t>
+  </si>
+  <si>
+    <t>TrainedNeuralNetworkScenario16.mat</t>
+  </si>
+  <si>
+    <t>TrainedNeuralNetworkScenario17.mat</t>
+  </si>
+  <si>
+    <t>NeuralNetworkScenario10.mat</t>
+  </si>
+  <si>
+    <t>NeuralNetworkScenario11.mat</t>
+  </si>
+  <si>
+    <t>TrainedNeuralNetworkScenario18.mat</t>
   </si>
 </sst>
 </file>
@@ -268,9 +295,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -308,7 +335,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -414,7 +441,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -556,7 +583,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -564,10 +591,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB6A9477-8AFD-4101-9264-32AD54AA2B96}">
-  <dimension ref="A1:Q41"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -583,7 +610,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="F1" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G1" s="7"/>
       <c r="H1" s="7"/>
@@ -593,49 +620,49 @@
     </row>
     <row r="2" spans="1:17" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="L2" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P2" s="4" t="s">
         <v>1</v>
@@ -646,13 +673,13 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D3" s="1">
         <v>1217</v>
@@ -662,7 +689,7 @@
         <v>0.33805555555555561</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -697,7 +724,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -748,7 +775,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
@@ -797,18 +824,18 @@
         <v>2</v>
       </c>
       <c r="Q5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D6" s="1">
         <v>28263</v>
@@ -853,13 +880,13 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D7" s="1">
         <v>27020</v>
@@ -902,15 +929,15 @@
         <v>2</v>
       </c>
       <c r="Q7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
         <v>2</v>
@@ -956,18 +983,18 @@
         <v>45075</v>
       </c>
       <c r="Q8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D9" s="1">
         <v>20204</v>
@@ -1010,15 +1037,15 @@
         <v>45089</v>
       </c>
       <c r="Q9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
         <v>2</v>
@@ -1064,15 +1091,15 @@
         <v>45090</v>
       </c>
       <c r="Q10" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
         <v>2</v>
@@ -1118,18 +1145,18 @@
         <v>45091</v>
       </c>
       <c r="Q11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="6">
@@ -1170,18 +1197,18 @@
         <v>45137</v>
       </c>
       <c r="Q12" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B13" t="s">
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="6">
@@ -1222,569 +1249,502 @@
         <v>45138</v>
       </c>
       <c r="Q13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D14" s="1"/>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="1">
+        <v>19812</v>
+      </c>
       <c r="E14" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5.503333333333333</v>
+      </c>
+      <c r="F14" t="s">
+        <v>2</v>
+      </c>
+      <c r="G14" t="s">
+        <v>2</v>
+      </c>
+      <c r="H14">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="I14" t="s">
+        <v>2</v>
+      </c>
+      <c r="J14">
+        <v>100</v>
+      </c>
+      <c r="K14" t="s">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.68930000000000002</v>
+      </c>
+      <c r="M14">
+        <v>0.67910000000000004</v>
+      </c>
+      <c r="N14">
+        <v>0.16370000000000001</v>
+      </c>
+      <c r="O14">
+        <v>0.17749999999999999</v>
+      </c>
+      <c r="P14" s="5">
+        <v>45139</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>47</v>
+      </c>
       <c r="D15" s="1"/>
       <c r="E15" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="F15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H15">
+        <v>1.37E-2</v>
+      </c>
+      <c r="I15" t="s">
+        <v>2</v>
+      </c>
+      <c r="J15" t="s">
+        <v>2</v>
+      </c>
+      <c r="K15" t="s">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.89829999999999999</v>
+      </c>
+      <c r="M15">
+        <v>0.89270000000000005</v>
+      </c>
+      <c r="N15">
+        <v>7.8899999999999998E-2</v>
+      </c>
+      <c r="O15">
+        <v>8.6699999999999999E-2</v>
+      </c>
+      <c r="P15" s="5">
+        <v>45142</v>
+      </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D16" s="1"/>
+      <c r="A16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="1">
+        <v>19348</v>
+      </c>
       <c r="E16" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D17" s="1"/>
+        <v>5.3744444444444444</v>
+      </c>
+      <c r="F16" t="s">
+        <v>2</v>
+      </c>
+      <c r="G16" t="s">
+        <v>2</v>
+      </c>
+      <c r="H16">
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="I16" t="s">
+        <v>2</v>
+      </c>
+      <c r="J16" t="s">
+        <v>2</v>
+      </c>
+      <c r="K16" t="s">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.90849999999999997</v>
+      </c>
+      <c r="M16">
+        <v>0.89680000000000004</v>
+      </c>
+      <c r="N16">
+        <v>6.5299999999999997E-2</v>
+      </c>
+      <c r="O16">
+        <v>7.9200000000000007E-2</v>
+      </c>
+      <c r="P16" s="5">
+        <v>45142</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="1">
+        <v>75994</v>
+      </c>
       <c r="E17" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D18" s="1"/>
+        <v>21.109444444444442</v>
+      </c>
+      <c r="F17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G17" t="s">
+        <v>2</v>
+      </c>
+      <c r="H17">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="I17" t="s">
+        <v>2</v>
+      </c>
+      <c r="J17">
+        <v>400</v>
+      </c>
+      <c r="K17" t="s">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="M17">
+        <v>0.90590000000000004</v>
+      </c>
+      <c r="N17">
+        <v>6.9800000000000001E-2</v>
+      </c>
+      <c r="O17">
+        <v>8.0699999999999994E-2</v>
+      </c>
+      <c r="P17" s="5">
+        <v>45143</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="1">
+        <v>21277</v>
+      </c>
       <c r="E18" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D19" s="1"/>
+        <v>5.910277777777778</v>
+      </c>
+      <c r="F18" t="s">
+        <v>2</v>
+      </c>
+      <c r="G18" t="s">
+        <v>2</v>
+      </c>
+      <c r="H18">
+        <v>4.2999999999999999E-4</v>
+      </c>
+      <c r="I18" t="s">
+        <v>2</v>
+      </c>
+      <c r="J18">
+        <v>100</v>
+      </c>
+      <c r="K18" t="s">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6865</v>
+      </c>
+      <c r="M18">
+        <v>0.67430000000000001</v>
+      </c>
+      <c r="N18">
+        <v>0.18090000000000001</v>
+      </c>
+      <c r="O18">
+        <v>0.1923</v>
+      </c>
+      <c r="P18" s="5">
+        <v>45144</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="1">
+        <v>6233</v>
+      </c>
       <c r="E19" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D20" s="1"/>
+        <v>1.7313888888888891</v>
+      </c>
+      <c r="F19" t="s">
+        <v>2</v>
+      </c>
+      <c r="G19" t="s">
+        <v>2</v>
+      </c>
+      <c r="H19">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="I19" t="s">
+        <v>2</v>
+      </c>
+      <c r="J19">
+        <v>25</v>
+      </c>
+      <c r="K19" t="s">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.87619999999999998</v>
+      </c>
+      <c r="M19">
+        <v>0.87050000000000005</v>
+      </c>
+      <c r="N19">
+        <v>0.1124</v>
+      </c>
+      <c r="O19">
+        <v>0.1174</v>
+      </c>
+      <c r="P19" s="5">
+        <v>45146</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="1">
+        <v>22976</v>
+      </c>
       <c r="E20" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D21" s="1"/>
+        <v>6.3822222222222225</v>
+      </c>
+      <c r="F20" t="s">
+        <v>2</v>
+      </c>
+      <c r="G20" t="s">
+        <v>2</v>
+      </c>
+      <c r="H20">
+        <v>3.0999999999999999E-3</v>
+      </c>
+      <c r="I20" t="s">
+        <v>2</v>
+      </c>
+      <c r="J20">
+        <v>100</v>
+      </c>
+      <c r="K20" t="s">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.8821</v>
+      </c>
+      <c r="M20">
+        <v>0.87519999999999998</v>
+      </c>
+      <c r="N20">
+        <v>0.10150000000000001</v>
+      </c>
+      <c r="O20">
+        <v>0.1128</v>
+      </c>
+      <c r="P20" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="1">
+        <v>96124</v>
+      </c>
       <c r="E21" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="4:17" x14ac:dyDescent="0.25">
+        <v>26.701111111111111</v>
+      </c>
+      <c r="F21" t="s">
+        <v>2</v>
+      </c>
+      <c r="G21" t="s">
+        <v>2</v>
+      </c>
+      <c r="H21">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="I21" t="s">
+        <v>2</v>
+      </c>
+      <c r="J21">
+        <v>400</v>
+      </c>
+      <c r="K21" t="s">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>0.83320000000000005</v>
+      </c>
+      <c r="M21">
+        <v>0.83240000000000003</v>
+      </c>
+      <c r="N21">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="O21">
+        <v>0.13320000000000001</v>
+      </c>
+      <c r="P21" s="5">
+        <v>45149</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D22" s="1"/>
       <c r="E22" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D23" s="1"/>
       <c r="E23" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D24" s="1"/>
       <c r="E24" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D25" s="1"/>
       <c r="E25" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F25" t="s">
-        <v>2</v>
-      </c>
-      <c r="G25" t="s">
-        <v>2</v>
-      </c>
-      <c r="H25" t="s">
-        <v>2</v>
-      </c>
-      <c r="I25">
-        <v>1</v>
-      </c>
-      <c r="J25" t="s">
-        <v>2</v>
-      </c>
-      <c r="K25" t="s">
-        <v>2</v>
-      </c>
-      <c r="P25" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="4:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D26" s="1"/>
       <c r="E26" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F26" t="s">
-        <v>2</v>
-      </c>
-      <c r="G26" t="s">
-        <v>2</v>
-      </c>
-      <c r="H26" t="s">
-        <v>2</v>
-      </c>
-      <c r="I26">
-        <v>10</v>
-      </c>
-      <c r="J26" t="s">
-        <v>2</v>
-      </c>
-      <c r="K26" t="s">
-        <v>2</v>
-      </c>
-      <c r="P26" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="4:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D27" s="1"/>
       <c r="E27" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F27" t="s">
-        <v>2</v>
-      </c>
-      <c r="G27" t="s">
-        <v>2</v>
-      </c>
-      <c r="H27" t="s">
-        <v>2</v>
-      </c>
-      <c r="I27">
-        <v>30</v>
-      </c>
-      <c r="J27" t="s">
-        <v>2</v>
-      </c>
-      <c r="K27" t="s">
-        <v>2</v>
-      </c>
-      <c r="P27" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="4:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D28" s="1"/>
       <c r="E28" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F28" t="s">
-        <v>2</v>
-      </c>
-      <c r="G28" t="s">
-        <v>2</v>
-      </c>
-      <c r="H28" t="s">
-        <v>2</v>
-      </c>
-      <c r="I28" t="s">
-        <v>2</v>
-      </c>
-      <c r="J28" t="s">
-        <v>2</v>
-      </c>
-      <c r="K28" t="s">
-        <v>2</v>
-      </c>
-      <c r="P28" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="4:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D29" s="1"/>
       <c r="E29" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F29" t="s">
-        <v>2</v>
-      </c>
-      <c r="G29" t="s">
-        <v>2</v>
-      </c>
-      <c r="H29" t="s">
-        <v>2</v>
-      </c>
-      <c r="I29" t="s">
-        <v>2</v>
-      </c>
-      <c r="J29" t="s">
-        <v>2</v>
-      </c>
-      <c r="K29" t="s">
-        <v>2</v>
-      </c>
-      <c r="P29" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="4:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D30" s="1"/>
       <c r="E30" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F30" t="s">
-        <v>2</v>
-      </c>
-      <c r="G30" t="s">
-        <v>2</v>
-      </c>
-      <c r="H30" t="s">
-        <v>2</v>
-      </c>
-      <c r="I30" t="s">
-        <v>2</v>
-      </c>
-      <c r="J30">
-        <v>10</v>
-      </c>
-      <c r="K30" t="s">
-        <v>2</v>
-      </c>
-      <c r="P30" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="4:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D31" s="1"/>
       <c r="E31" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F31" t="s">
-        <v>2</v>
-      </c>
-      <c r="G31" t="s">
-        <v>2</v>
-      </c>
-      <c r="H31" t="s">
-        <v>2</v>
-      </c>
-      <c r="I31">
-        <v>32</v>
-      </c>
-      <c r="J31">
-        <v>2</v>
-      </c>
-      <c r="K31" t="s">
-        <v>2</v>
-      </c>
-      <c r="P31" s="5">
-        <v>45054</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="4:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D32" s="1"/>
       <c r="E32" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
-      </c>
-      <c r="F32" t="s">
-        <v>2</v>
-      </c>
-      <c r="G32" t="s">
-        <v>2</v>
-      </c>
-      <c r="H32" t="s">
-        <v>2</v>
-      </c>
-      <c r="I32" t="s">
-        <v>2</v>
-      </c>
-      <c r="J32" t="s">
-        <v>2</v>
-      </c>
-      <c r="K32" t="s">
-        <v>2</v>
-      </c>
-      <c r="P32" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F33" t="s">
-        <v>2</v>
-      </c>
-      <c r="G33" t="s">
-        <v>2</v>
-      </c>
-      <c r="H33" t="s">
-        <v>2</v>
-      </c>
-      <c r="I33" t="s">
-        <v>2</v>
-      </c>
-      <c r="J33" t="s">
-        <v>2</v>
-      </c>
-      <c r="K33" t="s">
-        <v>2</v>
-      </c>
-      <c r="P33" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F34" t="s">
-        <v>2</v>
-      </c>
-      <c r="G34" t="s">
-        <v>2</v>
-      </c>
-      <c r="H34" t="s">
-        <v>2</v>
-      </c>
-      <c r="I34" t="s">
-        <v>2</v>
-      </c>
-      <c r="J34">
-        <v>20</v>
-      </c>
-      <c r="K34" t="s">
-        <v>2</v>
-      </c>
-      <c r="L34">
-        <v>0.87180000000000002</v>
-      </c>
-      <c r="M34">
-        <v>0.88370000000000004</v>
-      </c>
-      <c r="P34" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F35" t="s">
-        <v>2</v>
-      </c>
-      <c r="G35" t="s">
-        <v>2</v>
-      </c>
-      <c r="H35" t="s">
-        <v>2</v>
-      </c>
-      <c r="I35" t="s">
-        <v>2</v>
-      </c>
-      <c r="J35">
-        <v>100</v>
-      </c>
-      <c r="K35" t="s">
-        <v>2</v>
-      </c>
-      <c r="L35">
-        <v>0.91400000000000003</v>
-      </c>
-      <c r="M35">
-        <v>0.91679999999999995</v>
-      </c>
-      <c r="P35" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F36" t="s">
-        <v>2</v>
-      </c>
-      <c r="G36" t="s">
-        <v>2</v>
-      </c>
-      <c r="H36" t="s">
-        <v>2</v>
-      </c>
-      <c r="I36" t="s">
-        <v>2</v>
-      </c>
-      <c r="J36">
-        <v>10</v>
-      </c>
-      <c r="K36" t="s">
-        <v>2</v>
-      </c>
-      <c r="L36">
-        <v>0.91910000000000003</v>
-      </c>
-      <c r="M36">
-        <v>0.91969999999999996</v>
-      </c>
-      <c r="P36" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F37" t="s">
-        <v>2</v>
-      </c>
-      <c r="G37" t="s">
-        <v>2</v>
-      </c>
-      <c r="H37">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="I37" t="s">
-        <v>2</v>
-      </c>
-      <c r="J37">
-        <v>20</v>
-      </c>
-      <c r="K37" t="s">
-        <v>2</v>
-      </c>
-      <c r="L37">
-        <v>0.91930000000000001</v>
-      </c>
-      <c r="M37">
-        <v>0.92310000000000003</v>
-      </c>
-      <c r="P37" s="5">
-        <v>45055</v>
-      </c>
-    </row>
-    <row r="38" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F38" t="s">
-        <v>2</v>
-      </c>
-      <c r="G38" t="s">
-        <v>2</v>
-      </c>
-      <c r="H38">
-        <v>1.4</v>
-      </c>
-      <c r="I38" t="s">
-        <v>2</v>
-      </c>
-      <c r="J38">
-        <v>150</v>
-      </c>
-      <c r="K38" t="s">
-        <v>2</v>
-      </c>
-      <c r="L38">
-        <v>0.5917</v>
-      </c>
-      <c r="M38">
-        <v>0.60329999999999995</v>
-      </c>
-      <c r="P38" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F39" t="s">
-        <v>2</v>
-      </c>
-      <c r="G39" t="s">
-        <v>2</v>
-      </c>
-      <c r="H39" t="s">
-        <v>15</v>
-      </c>
-      <c r="I39" t="s">
-        <v>2</v>
-      </c>
-      <c r="J39">
-        <v>5</v>
-      </c>
-      <c r="K39" t="s">
-        <v>2</v>
-      </c>
-      <c r="L39">
-        <v>0.61229999999999996</v>
-      </c>
-      <c r="M39">
-        <v>0.623</v>
-      </c>
-      <c r="P39" s="5">
-        <v>45056</v>
-      </c>
-    </row>
-    <row r="40" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F40" t="s">
-        <v>2</v>
-      </c>
-      <c r="G40" t="s">
-        <v>2</v>
-      </c>
-      <c r="H40">
-        <v>0.4</v>
-      </c>
-      <c r="I40" t="s">
-        <v>2</v>
-      </c>
-      <c r="J40">
-        <v>50</v>
-      </c>
-      <c r="K40" t="s">
-        <v>2</v>
-      </c>
-      <c r="L40">
-        <v>0.66659999999999997</v>
-      </c>
-      <c r="M40">
-        <v>0.67810000000000004</v>
-      </c>
-      <c r="P40" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F41" t="s">
-        <v>2</v>
-      </c>
-      <c r="G41" t="s">
-        <v>2</v>
-      </c>
-      <c r="H41" t="s">
-        <v>15</v>
-      </c>
-      <c r="I41">
-        <v>32</v>
-      </c>
-      <c r="J41">
-        <v>2</v>
-      </c>
-      <c r="K41" t="s">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
